--- a/data_challenge/cross trials.xlsx
+++ b/data_challenge/cross trials.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="0" windowWidth="15480" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="12660" yWindow="0" windowWidth="15480" windowHeight="17460" tabRatio="611" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="22">
   <si>
     <t>Crosses:</t>
   </si>
@@ -67,6 +69,27 @@
   </si>
   <si>
     <t>avg:</t>
+  </si>
+  <si>
+    <t>n=60</t>
+  </si>
+  <si>
+    <t>break = true</t>
+  </si>
+  <si>
+    <t>no break version</t>
+  </si>
+  <si>
+    <t>checking early probs</t>
+  </si>
+  <si>
+    <t>goal=10</t>
+  </si>
+  <si>
+    <t>n=10</t>
+  </si>
+  <si>
+    <t>goal=3</t>
   </si>
 </sst>
 </file>
@@ -120,8 +143,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,7 +176,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -157,6 +186,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -166,6 +198,9 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,10 +784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -806,27 +841,60 @@
         <v>0.318469</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1591090</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.318218</v>
+      </c>
+    </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <f>SUM(B1:B22)</f>
-        <v>636454</v>
+        <v>2227544</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2">
         <f>SUM(D1:D21)</f>
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1">
         <f>B24/D24</f>
-        <v>0.31822699999999998</v>
+        <v>0.31822057142857141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -918,7 +986,7 @@
         <v>104.69159000000001</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K15" si="0">J2*D2</f>
+        <f t="shared" ref="K2:K3" si="0">J2*D2</f>
         <v>10469159</v>
       </c>
     </row>
@@ -1000,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1201,4 +1269,297 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1238244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>6000000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>0.206374</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>12.382440000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1238026</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0.206337666666666</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>12.38026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B1:B22)</f>
+        <v>2476270</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(D1:D21)</f>
+        <v>12000000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <f>B24/D24</f>
+        <v>0.20635583333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>3406657</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>7500000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>0.45422093333333302</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>4.5422093333333304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13618077</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>30000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0.4539359</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>4.5393590000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>13617379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>30000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.45391263333333298</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>4.5391263333333303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B1:B22)</f>
+        <v>30642113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(D1:D21)</f>
+        <v>67500000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <f>B24/D24</f>
+        <v>0.45395722962962964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data_challenge/cross trials.xlsx
+++ b/data_challenge/cross trials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="0" windowWidth="15480" windowHeight="17460" tabRatio="611" activeTab="5"/>
+    <workbookView xWindow="12660" yWindow="0" windowWidth="15480" windowHeight="17460" tabRatio="611" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="22">
   <si>
     <t>Crosses:</t>
   </si>
@@ -143,8 +143,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -176,7 +182,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -189,6 +195,9 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -201,6 +210,9 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1275,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1348,27 +1360,59 @@
         <v>12.38026</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>15484016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>75000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.20645354666666599</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>12.3872128</v>
+      </c>
+    </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <f>SUM(B1:B22)</f>
-        <v>2476270</v>
+        <v>17960286</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2">
         <f>SUM(D1:D21)</f>
-        <v>12000000</v>
+        <v>87000000</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1">
         <f>B24/D24</f>
-        <v>0.20635583333333332</v>
+        <v>0.20644006896551725</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -1406,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1511,27 +1555,91 @@
         <v>4.5391263333333303</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>34047452</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>75000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0.45396602666666602</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>4.5396602666666599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>34053806</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>75000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0.45405074666666601</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>4.5405074666666598</v>
+      </c>
+    </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <f>SUM(B1:B22)</f>
-        <v>30642113</v>
+        <v>98743371</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2">
         <f>SUM(D1:D21)</f>
-        <v>67500000</v>
+        <v>217500000</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1">
         <f>B24/D24</f>
-        <v>0.45395722962962964</v>
+        <v>0.45399251034482757</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -1556,6 +1664,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
